--- a/WebAuto.Tests/TestFiles/sequences.xlsx
+++ b/WebAuto.Tests/TestFiles/sequences.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="3450" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="6705" windowWidth="16215" windowHeight="5535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GotoSearchPage" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
   <si>
     <t>desc2</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>$map(searchpage|searchtextbox2)</t>
+  </si>
+  <si>
+    <t>CheckDB</t>
   </si>
 </sst>
 </file>
@@ -484,10 +487,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,6 +563,11 @@
       </c>
       <c r="D5">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -675,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WebAuto.Tests/TestFiles/sequences.xlsx
+++ b/WebAuto.Tests/TestFiles/sequences.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
   <si>
     <t>desc2</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>$map(searchpage|searchtextbox2)</t>
-  </si>
-  <si>
-    <t>CheckDB</t>
   </si>
 </sst>
 </file>
@@ -487,10 +484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,11 +562,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -580,7 +572,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,13 +606,10 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -628,50 +617,32 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
         <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
+      <c r="D5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
